--- a/acm/rules/drools-transcribe-rules.xlsx
+++ b/acm/rules/drools-transcribe-rules.xlsx
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>language == null</t>
-  </si>
-  <si>
-    <t>setLanguage, 'en_US'</t>
   </si>
   <si>
     <t>RuleTable Transcribe Rules</t>
@@ -150,6 +147,9 @@
     return evaluated;
 }</t>
     </r>
+  </si>
+  <si>
+    <t>setLanguage, 'en-US'</t>
   </si>
 </sst>
 </file>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -942,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -959,7 +959,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -1038,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">

--- a/acm/rules/drools-transcribe-rules.xlsx
+++ b/acm/rules/drools-transcribe-rules.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riste.tutureski\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ArkCase\acm-services\acm-service-media-engine\src\test\resources\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5119F42D-BBEA-41C7-98C8-01F107F1AAA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="111"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,12 +82,6 @@
   </si>
   <si>
     <t>setStatus, 'DRAFT'</t>
-  </si>
-  <si>
-    <t>$transcribe: Transcribe</t>
-  </si>
-  <si>
-    <t>com.armedia.acm.services.transcribe.model.Transcribe</t>
   </si>
   <si>
     <t>eval(evalSpring("$param", $transcribe))</t>
@@ -151,11 +146,17 @@
   <si>
     <t>setLanguage, 'en-US'</t>
   </si>
+  <si>
+    <t>com.armedia.acm.services.mediaengine.model.MediaEngine</t>
+  </si>
+  <si>
+    <t>$transcribe: MediaEngine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -819,53 +820,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.453125"/>
-    <col min="2" max="2" width="24.26953125"/>
-    <col min="3" max="3" width="50.1796875"/>
-    <col min="4" max="4" width="100.453125"/>
-    <col min="5" max="5" width="27.7265625"/>
+    <col min="1" max="1" width="19.44140625"/>
+    <col min="2" max="2" width="24.21875"/>
+    <col min="3" max="3" width="50.21875"/>
+    <col min="4" max="4" width="100.44140625"/>
+    <col min="5" max="5" width="27.77734375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
@@ -875,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
@@ -885,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
@@ -895,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
@@ -905,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
@@ -915,7 +916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
@@ -925,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
@@ -935,17 +936,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="8" t="s">
@@ -955,15 +956,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
@@ -973,25 +974,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>14</v>
       </c>
@@ -1005,22 +1006,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>18</v>
@@ -1029,61 +1030,61 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -1096,12 +1097,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1109,12 +1110,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/acm/rules/drools-transcribe-rules.xlsx
+++ b/acm/rules/drools-transcribe-rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF276239-5BDC-4906-AA1C-0295588745A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2217A097-2637-4E53-A5F4-F027AAAC220A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
